--- a/templates/questions.xlsx
+++ b/templates/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7000035078\Desktop\First Challenge\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1A59F3-D99C-47AD-8E3F-DA67FA845E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A15A4B-29C0-40C3-A872-085B3B34ED70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9459C798-4785-4FCC-8A7D-F92788E8E087}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Option 1</t>
   </si>
@@ -102,12 +102,6 @@
   </si>
   <si>
     <t>question</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>whats ur name</t>
   </si>
 </sst>
 </file>
@@ -459,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5872163A-14C7-4DC2-AB02-7EE81C01F39B}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,16 +547,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
